--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Mrgprb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Mrgprb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Mrgprb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H2">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I2">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J2">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +555,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01213333333333333</v>
+        <v>0.288097</v>
       </c>
       <c r="N2">
-        <v>0.0364</v>
+        <v>0.864291</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1511209578666667</v>
+        <v>5.173324121651</v>
       </c>
       <c r="R2">
-        <v>0.9067257471999999</v>
+        <v>31.039944729906</v>
       </c>
       <c r="S2">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="T2">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,10 +605,10 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I3">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J3">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +617,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01213333333333333</v>
+        <v>0.288097</v>
       </c>
       <c r="N3">
-        <v>0.0364</v>
+        <v>0.864291</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3974100190666667</v>
+        <v>9.436206120580998</v>
       </c>
       <c r="R3">
-        <v>3.5766901716</v>
+        <v>84.925855085229</v>
       </c>
       <c r="S3">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="T3">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H4">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I4">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J4">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +679,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01213333333333333</v>
+        <v>0.288097</v>
       </c>
       <c r="N4">
-        <v>0.0364</v>
+        <v>0.864291</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01644842593333334</v>
+        <v>0.5484367183410001</v>
       </c>
       <c r="R4">
-        <v>0.09869055560000001</v>
+        <v>3.290620310046</v>
       </c>
       <c r="S4">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="T4">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H5">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I5">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J5">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +741,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01213333333333333</v>
+        <v>0.288097</v>
       </c>
       <c r="N5">
-        <v>0.0364</v>
+        <v>0.864291</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1419243239555556</v>
+        <v>0.09186856342466666</v>
       </c>
       <c r="R5">
-        <v>1.2773189156</v>
+        <v>0.8268170708220001</v>
       </c>
       <c r="S5">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="T5">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
     </row>
   </sheetData>
